--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.013678</v>
+        <v>0.05678866666666666</v>
       </c>
       <c r="H2">
-        <v>0.04103399999999999</v>
+        <v>0.170366</v>
       </c>
       <c r="I2">
-        <v>0.0346726738703539</v>
+        <v>0.1297730042656916</v>
       </c>
       <c r="J2">
-        <v>0.03467267387035391</v>
+        <v>0.1297730042656917</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4010836666666666</v>
+        <v>0.4010836666666667</v>
       </c>
       <c r="N2">
         <v>1.203251</v>
       </c>
       <c r="O2">
-        <v>0.07750830882582659</v>
+        <v>0.0699907978100882</v>
       </c>
       <c r="P2">
-        <v>0.07750830882582659</v>
+        <v>0.0699907978100882</v>
       </c>
       <c r="Q2">
-        <v>0.005486022392666665</v>
+        <v>0.02277700665177778</v>
       </c>
       <c r="R2">
-        <v>0.04937420153399999</v>
+        <v>0.204993059866</v>
       </c>
       <c r="S2">
-        <v>0.002687420314160558</v>
+        <v>0.009082916102767737</v>
       </c>
       <c r="T2">
-        <v>0.002687420314160559</v>
+        <v>0.009082916102767739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.013678</v>
+        <v>0.05678866666666666</v>
       </c>
       <c r="H3">
-        <v>0.04103399999999999</v>
+        <v>0.170366</v>
       </c>
       <c r="I3">
-        <v>0.0346726738703539</v>
+        <v>0.1297730042656916</v>
       </c>
       <c r="J3">
-        <v>0.03467267387035391</v>
+        <v>0.1297730042656917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.773634666666666</v>
+        <v>5.329436333333334</v>
       </c>
       <c r="N3">
-        <v>14.320904</v>
+        <v>15.988309</v>
       </c>
       <c r="O3">
-        <v>0.9224916911741734</v>
+        <v>0.9300092021899118</v>
       </c>
       <c r="P3">
-        <v>0.9224916911741734</v>
+        <v>0.9300092021899117</v>
       </c>
       <c r="Q3">
-        <v>0.06529377497066664</v>
+        <v>0.3026515834548889</v>
       </c>
       <c r="R3">
-        <v>0.5876439747359998</v>
+        <v>2.723864251094</v>
       </c>
       <c r="S3">
-        <v>0.03198525355619334</v>
+        <v>0.1206900881629239</v>
       </c>
       <c r="T3">
-        <v>0.03198525355619335</v>
+        <v>0.1206900881629239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.142434</v>
       </c>
       <c r="I4">
-        <v>0.965327326129646</v>
+        <v>0.8702269957343084</v>
       </c>
       <c r="J4">
-        <v>0.9653273261296461</v>
+        <v>0.8702269957343083</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4010836666666666</v>
+        <v>0.4010836666666667</v>
       </c>
       <c r="N4">
         <v>1.203251</v>
       </c>
       <c r="O4">
-        <v>0.07750830882582659</v>
+        <v>0.0699907978100882</v>
       </c>
       <c r="P4">
-        <v>0.07750830882582659</v>
+        <v>0.0699907978100882</v>
       </c>
       <c r="Q4">
-        <v>0.1527372058815555</v>
+        <v>0.1527372058815556</v>
       </c>
       <c r="R4">
         <v>1.374634852934</v>
       </c>
       <c r="S4">
-        <v>0.07482088851166602</v>
+        <v>0.06090788170732046</v>
       </c>
       <c r="T4">
-        <v>0.07482088851166603</v>
+        <v>0.06090788170732046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.142434</v>
       </c>
       <c r="I5">
-        <v>0.965327326129646</v>
+        <v>0.8702269957343084</v>
       </c>
       <c r="J5">
-        <v>0.9653273261296461</v>
+        <v>0.8702269957343083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.773634666666666</v>
+        <v>5.329436333333334</v>
       </c>
       <c r="N5">
-        <v>14.320904</v>
+        <v>15.988309</v>
       </c>
       <c r="O5">
-        <v>0.9224916911741734</v>
+        <v>0.9300092021899118</v>
       </c>
       <c r="P5">
-        <v>0.9224916911741734</v>
+        <v>0.9300092021899117</v>
       </c>
       <c r="Q5">
-        <v>1.817854182259555</v>
+        <v>2.029509756011778</v>
       </c>
       <c r="R5">
-        <v>16.360687640336</v>
+        <v>18.265587804106</v>
       </c>
       <c r="S5">
-        <v>0.89050643761798</v>
+        <v>0.809319114026988</v>
       </c>
       <c r="T5">
-        <v>0.8905064376179801</v>
+        <v>0.8093191140269878</v>
       </c>
     </row>
   </sheetData>
